--- a/benchmark/b_imputation.xlsx
+++ b/benchmark/b_imputation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,32 +441,32 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>roc_auc</t>
+          <t>roc_auc_mean</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>accuracy</t>
+          <t>accuracy_mean</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>specificity</t>
+          <t>specificity_mean</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>npv</t>
+          <t>npv_mean</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>sensitivity</t>
+          <t>sensitivity_mean</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ppv</t>
+          <t>ppv_mean</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -497,6 +497,41 @@
       <c r="M1" s="1" t="inlineStr">
         <is>
           <t>ppv_std</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>roc_auc_ci</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy_ci</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>specificity_ci</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>npv_ci</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>sensitivity_ci</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>ppv_ci</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>roc_auc_p</t>
         </is>
       </c>
     </row>
@@ -507,41 +542,72 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9578905597326651</v>
+        <v>0.9597646895015316</v>
       </c>
       <c r="C2" t="n">
-        <v>0.899491211840888</v>
+        <v>0.89736355226642</v>
       </c>
       <c r="D2" t="n">
         <v>0.8923684210526316</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8719654528478058</v>
+        <v>0.868155929038282</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9047619047619048</v>
+        <v>0.9011904761904761</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9246624703521256</v>
+        <v>0.9242351199247751</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01957245787694068</v>
+        <v>0.02104349861719232</v>
       </c>
       <c r="I2" t="n">
-        <v>0.03465372746086034</v>
+        <v>0.04010676322158118</v>
       </c>
       <c r="J2" t="n">
-        <v>0.07799824204283616</v>
+        <v>0.08221736611482228</v>
       </c>
       <c r="K2" t="n">
-        <v>0.03904398212145491</v>
+        <v>0.04947898540426823</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03739434599806271</v>
+        <v>0.04537827533831511</v>
       </c>
       <c r="M2" t="n">
-        <v>0.05332672273242856</v>
-      </c>
+        <v>0.05652883947865767</v>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>[0.945, 0.975]</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>[0.869, 0.926]</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>[0.834, 0.951]</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>[0.833, 0.904]</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>[0.869, 0.934]</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>[0.884, 0.965]</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -568,22 +634,55 @@
         <v>0.9269272872721149</v>
       </c>
       <c r="H3" t="n">
-        <v>0.02142481667709865</v>
+        <v>0.022583739717064</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03734359690817417</v>
+        <v>0.03936360741768406</v>
       </c>
       <c r="J3" t="n">
-        <v>0.07245640584463488</v>
+        <v>0.07637575784619416</v>
       </c>
       <c r="K3" t="n">
-        <v>0.04127736804754764</v>
+        <v>0.04351016628243599</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0330253683266185</v>
+        <v>0.03481179482603268</v>
       </c>
       <c r="M3" t="n">
-        <v>0.05102026406084798</v>
+        <v>0.05378008041850373</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>[0.939, 0.971]</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>[0.871, 0.928]</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>[0.843, 0.952]</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>[0.836, 0.898]</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>[0.876, 0.926]</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>[0.888, 0.965]</t>
+        </is>
+      </c>
+      <c r="T3" t="n">
+        <v>0.09422893327591718</v>
       </c>
     </row>
     <row r="4">
@@ -611,22 +710,55 @@
         <v>0.9233456836905113</v>
       </c>
       <c r="H4" t="n">
-        <v>0.02155177361205386</v>
+        <v>0.02271756407680143</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04139830177471947</v>
+        <v>0.04363764162370146</v>
       </c>
       <c r="J4" t="n">
-        <v>0.07799824204283616</v>
+        <v>0.08221736611482228</v>
       </c>
       <c r="K4" t="n">
-        <v>0.04412539316685426</v>
+        <v>0.04651224835256322</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03528177258792896</v>
+        <v>0.03719025375531628</v>
       </c>
       <c r="M4" t="n">
-        <v>0.05445474804096371</v>
+        <v>0.05740034440667912</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>[0.940, 0.973]</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>[0.864, 0.926]</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>[0.834, 0.951]</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>[0.829, 0.895]</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>[0.871, 0.924]</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>[0.882, 0.964]</t>
+        </is>
+      </c>
+      <c r="T4" t="n">
+        <v>0.1631507604774231</v>
       </c>
     </row>
     <row r="5">
@@ -654,22 +786,55 @@
         <v>0.9308523991972268</v>
       </c>
       <c r="H5" t="n">
-        <v>0.01861451782923658</v>
+        <v>0.01962142462873362</v>
       </c>
       <c r="I5" t="n">
-        <v>0.03384907109134851</v>
+        <v>0.0356800537765409</v>
       </c>
       <c r="J5" t="n">
-        <v>0.07108186533109109</v>
+        <v>0.07492686492653552</v>
       </c>
       <c r="K5" t="n">
-        <v>0.04134080424206333</v>
+        <v>0.04357703390269035</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03656372740355682</v>
+        <v>0.03854155278025138</v>
       </c>
       <c r="M5" t="n">
-        <v>0.04887725738149085</v>
+        <v>0.05152115303592951</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>[0.943, 0.971]</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>[0.878, 0.929]</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>[0.849, 0.956]</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>[0.842, 0.904]</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>[0.877, 0.932]</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>[0.894, 0.968]</t>
+        </is>
+      </c>
+      <c r="T5" t="n">
+        <v>0.2631138617210181</v>
       </c>
     </row>
   </sheetData>

--- a/benchmark/b_imputation.xlsx
+++ b/benchmark/b_imputation.xlsx
@@ -542,49 +542,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9597646895015316</v>
+        <v>0.959175717070454</v>
       </c>
       <c r="C2" t="n">
-        <v>0.89736355226642</v>
+        <v>0.899444958371878</v>
       </c>
       <c r="D2" t="n">
         <v>0.8923684210526316</v>
       </c>
       <c r="E2" t="n">
-        <v>0.868155929038282</v>
+        <v>0.8706204236080397</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9011904761904761</v>
+        <v>0.9047619047619048</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9242351199247751</v>
+        <v>0.9242656449553002</v>
       </c>
       <c r="H2" t="n">
-        <v>0.02104349861719232</v>
+        <v>0.02151508790621114</v>
       </c>
       <c r="I2" t="n">
-        <v>0.04010676322158118</v>
+        <v>0.03806435376428949</v>
       </c>
       <c r="J2" t="n">
         <v>0.08221736611482228</v>
       </c>
       <c r="K2" t="n">
-        <v>0.04947898540426823</v>
+        <v>0.03673459897686258</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04537827533831511</v>
+        <v>0.03072531109379957</v>
       </c>
       <c r="M2" t="n">
-        <v>0.05652883947865767</v>
+        <v>0.05647417221222185</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>[0.945, 0.975]</t>
+          <t>[0.944, 0.975]</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>[0.869, 0.926]</t>
+          <t>[0.872, 0.927]</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -594,12 +594,12 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[0.833, 0.904]</t>
+          <t>[0.844, 0.897]</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>[0.869, 0.934]</t>
+          <t>[0.883, 0.927]</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>0.09422893327591718</v>
+        <v>0.06862723695369878</v>
       </c>
     </row>
     <row r="4">
@@ -758,7 +758,7 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>0.1631507604774231</v>
+        <v>0.1366846762177055</v>
       </c>
     </row>
     <row r="5">
@@ -834,7 +834,7 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>0.2631138617210181</v>
+        <v>0.3674628466525119</v>
       </c>
     </row>
   </sheetData>
